--- a/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_SMA_2_9_full.xlsx
+++ b/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_SMA_2_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2041 +417,2772 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>34948</v>
+        <v>31047</v>
       </c>
       <c r="B2">
-        <v>1995</v>
+        <v>1984</v>
       </c>
       <c r="C2">
-        <v>2.654165305041922</v>
+        <v>2.833670241322217</v>
       </c>
       <c r="D2">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="E2">
-        <v>3.193709999460959</v>
+        <v>4.978977805976226</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>35040</v>
+        <v>31137</v>
       </c>
       <c r="B3">
-        <v>1995</v>
+        <v>1985</v>
       </c>
       <c r="C3">
-        <v>2.234710814035812</v>
+        <v>5.596594930468801</v>
       </c>
       <c r="D3">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="E3">
-        <v>1.463127579670287</v>
+        <v>5.985830497824796</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>35131</v>
+        <v>31228</v>
       </c>
       <c r="B4">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="C4">
-        <v>-0.5166788374649123</v>
+        <v>1.058157908195101</v>
       </c>
       <c r="D4">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="E4">
-        <v>-0.9489052377267937</v>
+        <v>-0.2746413702905404</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>35221</v>
+        <v>31320</v>
       </c>
       <c r="B5">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="C5">
-        <v>-0.6785505155195604</v>
+        <v>2.049376924573876</v>
       </c>
       <c r="D5">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="E5">
-        <v>-1.188578696562748</v>
+        <v>1.961182300171815</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>35313</v>
+        <v>31412</v>
       </c>
       <c r="B6">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="C6">
-        <v>1.371336976130499</v>
+        <v>2.740628897120945</v>
       </c>
       <c r="D6">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="E6">
-        <v>3.430500530262126</v>
+        <v>4.840042388885646</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>35403</v>
+        <v>31502</v>
       </c>
       <c r="B7">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="C7">
-        <v>1.595002781738275</v>
+        <v>3.577084802522279</v>
       </c>
       <c r="D7">
-        <v>1997</v>
+        <v>1987</v>
       </c>
       <c r="E7">
-        <v>4.207635715208324</v>
+        <v>3.394193257251921</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>35493</v>
+        <v>31593</v>
       </c>
       <c r="B8">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="C8">
-        <v>1.638340136177918</v>
+        <v>0.613400232493766</v>
       </c>
       <c r="D8">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="E8">
-        <v>1.199618656731283</v>
+        <v>-0.6878195673301057</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>35586</v>
+        <v>31685</v>
       </c>
       <c r="B9">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="C9">
-        <v>1.695006817304967</v>
+        <v>1.98708746686036</v>
       </c>
       <c r="D9">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="E9">
-        <v>1.278023271204054</v>
+        <v>2.419145950681045</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>35683</v>
+        <v>31777</v>
       </c>
       <c r="B10">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="C10">
-        <v>2.404582467128114</v>
+        <v>2.269459987912947</v>
       </c>
       <c r="D10">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="E10">
-        <v>3.152352039472572</v>
+        <v>3.593781657196393</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>35768</v>
+        <v>31867</v>
       </c>
       <c r="B11">
-        <v>1997</v>
+        <v>1987</v>
       </c>
       <c r="C11">
-        <v>2.499560583078497</v>
+        <v>3.682422843948863</v>
       </c>
       <c r="D11">
-        <v>1998</v>
+        <v>1988</v>
       </c>
       <c r="E11">
-        <v>3.492506333467071</v>
+        <v>3.67088329873857</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>35881</v>
+        <v>31958</v>
       </c>
       <c r="B12">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="C12">
-        <v>1.912940098790661</v>
+        <v>-2.809251799599333</v>
       </c>
       <c r="D12">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="E12">
-        <v>1.694922516109876</v>
+        <v>-5.22296739181829</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>35950</v>
+        <v>32050</v>
       </c>
       <c r="B13">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="C13">
-        <v>2.847469613938181</v>
+        <v>0.7180318372854266</v>
       </c>
       <c r="D13">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="E13">
-        <v>2.968999233486636</v>
+        <v>2.823118561151494</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>36047</v>
+        <v>32142</v>
       </c>
       <c r="B14">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="C14">
-        <v>2.81077400804024</v>
+        <v>1.253514454810789</v>
       </c>
       <c r="D14">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="E14">
-        <v>2.168644690046584</v>
+        <v>5.084502077712005</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>36132</v>
+        <v>32233</v>
       </c>
       <c r="B15">
-        <v>1998</v>
+        <v>1988</v>
       </c>
       <c r="C15">
-        <v>2.812603855740181</v>
+        <v>5.322178424298007</v>
       </c>
       <c r="D15">
-        <v>1999</v>
+        <v>1989</v>
       </c>
       <c r="E15">
-        <v>2.334197296693863</v>
+        <v>5.268626236616925</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>36223</v>
+        <v>32324</v>
       </c>
       <c r="B16">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="C16">
-        <v>0.4154932394832223</v>
+        <v>1.311815945521522</v>
       </c>
       <c r="D16">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="E16">
-        <v>0.1667676276564611</v>
+        <v>-0.2360507986455929</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>36319</v>
+        <v>32416</v>
       </c>
       <c r="B17">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="C17">
-        <v>0.8798915307165922</v>
+        <v>3.097251837425286</v>
       </c>
       <c r="D17">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="E17">
-        <v>0.9767994936995539</v>
+        <v>3.798547520940621</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>36412</v>
+        <v>32508</v>
       </c>
       <c r="B18">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="C18">
-        <v>0.6432491781942717</v>
+        <v>3.509161092519553</v>
       </c>
       <c r="D18">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="E18">
-        <v>0.7060477938485743</v>
+        <v>5.511076843601681</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>36501</v>
+        <v>32598</v>
       </c>
       <c r="B19">
-        <v>1999</v>
+        <v>1989</v>
       </c>
       <c r="C19">
-        <v>1.188004848513446</v>
+        <v>4.891617427153694</v>
       </c>
       <c r="D19">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="E19">
-        <v>2.032004888754391</v>
+        <v>4.748149098019105</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>36587</v>
+        <v>32689</v>
       </c>
       <c r="B20">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="C20">
-        <v>2.89324554678807</v>
+        <v>4.646141329820397</v>
       </c>
       <c r="D20">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="E20">
-        <v>3.030131733635244</v>
+        <v>4.409069002718513</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>36676</v>
+        <v>32781</v>
       </c>
       <c r="B21">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="C21">
-        <v>2.656958100102846</v>
+        <v>3.780767508311</v>
       </c>
       <c r="D21">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="E21">
-        <v>2.731710176905877</v>
+        <v>2.47008531625017</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>36767</v>
+        <v>32873</v>
       </c>
       <c r="B22">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="C22">
-        <v>3.398546648180578</v>
+        <v>3.898460078540933</v>
       </c>
       <c r="D22">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="E22">
-        <v>4.167119510522754</v>
+        <v>2.951715842334024</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>36858</v>
+        <v>32963</v>
       </c>
       <c r="B23">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="C23">
-        <v>3.277038745546235</v>
+        <v>4.174743032083628</v>
       </c>
       <c r="D23">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="E23">
-        <v>3.09884301635126</v>
+        <v>4.405123000877609</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>36951</v>
+        <v>33054</v>
       </c>
       <c r="B24">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="C24">
-        <v>1.181852137749018</v>
+        <v>6.234545104864941</v>
       </c>
       <c r="D24">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="E24">
-        <v>0.9293919043387833</v>
+        <v>7.271550582979214</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>37034</v>
+        <v>33146</v>
       </c>
       <c r="B25">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="C25">
-        <v>1.426159487177681</v>
+        <v>4.810354680185491</v>
       </c>
       <c r="D25">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="E25">
-        <v>1.268063782307416</v>
+        <v>4.067805359878718</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>37126</v>
+        <v>33238</v>
       </c>
       <c r="B26">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="C26">
-        <v>0.9563223375169905</v>
+        <v>5.356103277865332</v>
       </c>
       <c r="D26">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="E26">
-        <v>0.4375407458243163</v>
+        <v>6.3181560832964</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>37222</v>
+        <v>33328</v>
       </c>
       <c r="B27">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="C27">
-        <v>0.7513248531724415</v>
+        <v>7.467907004174634</v>
       </c>
       <c r="D27">
-        <v>2002</v>
+        <v>1992</v>
       </c>
       <c r="E27">
-        <v>-0.408724114026926</v>
+        <v>7.75780161715891</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>37314</v>
+        <v>33419</v>
       </c>
       <c r="B28">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="C28">
-        <v>-0.8132369628729097</v>
+        <v>9.12959361095953</v>
       </c>
       <c r="D28">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="E28">
-        <v>-0.8985592391854702</v>
+        <v>10.06345753894098</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>37399</v>
+        <v>33511</v>
       </c>
       <c r="B29">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="C29">
-        <v>-0.09079305020236461</v>
+        <v>7.65186587692519</v>
       </c>
       <c r="D29">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="E29">
-        <v>0.1072756205915404</v>
+        <v>6.75990437101035</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>37490</v>
+        <v>33603</v>
       </c>
       <c r="B30">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="C30">
-        <v>0.366162710493767</v>
+        <v>5.955905607167122</v>
       </c>
       <c r="D30">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="E30">
-        <v>1.108286614369702</v>
+        <v>-0.005898890116151634</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>37581</v>
+        <v>33694</v>
       </c>
       <c r="B31">
-        <v>2002</v>
+        <v>1992</v>
       </c>
       <c r="C31">
-        <v>0.2537741062064169</v>
+        <v>1.407223054900464</v>
       </c>
       <c r="D31">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="E31">
-        <v>0.9118162660485263</v>
+        <v>1.540180738166597</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>37678</v>
+        <v>33785</v>
       </c>
       <c r="B32">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="C32">
-        <v>0.4092409882227255</v>
+        <v>3.770303686471776</v>
       </c>
       <c r="D32">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E32">
-        <v>0.3201964805208179</v>
+        <v>4.833608027690683</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>37756</v>
+        <v>33877</v>
       </c>
       <c r="B33">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="C33">
-        <v>-0.2852992240488517</v>
+        <v>2.363611241596497</v>
       </c>
       <c r="D33">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E33">
-        <v>-0.6434466511772374</v>
+        <v>1.653235005316933</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>37847</v>
+        <v>33969</v>
       </c>
       <c r="B34">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="C34">
-        <v>-0.2969170546321287</v>
+        <v>1.850401149566561</v>
       </c>
       <c r="D34">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E34">
-        <v>-0.480369672753056</v>
+        <v>-0.4495646332120296</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>37938</v>
+        <v>34059</v>
       </c>
       <c r="B35">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="C35">
-        <v>-0.1535080579381121</v>
+        <v>-0.5442533711950692</v>
       </c>
       <c r="D35">
-        <v>2004</v>
+        <v>1994</v>
       </c>
       <c r="E35">
-        <v>0.3435726964089891</v>
+        <v>-0.5665334908269704</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>38029</v>
+        <v>34150</v>
       </c>
       <c r="B36">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="C36">
-        <v>0.744905948692054</v>
+        <v>-3.631379003451563</v>
       </c>
       <c r="D36">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="E36">
-        <v>0.8419429008595269</v>
+        <v>-4.837330717035071</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>38120</v>
+        <v>34242</v>
       </c>
       <c r="B37">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="C37">
-        <v>1.25935754237172</v>
+        <v>-1.790701590087718</v>
       </c>
       <c r="D37">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="E37">
-        <v>1.52755625946297</v>
+        <v>-0.625345630378904</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>38211</v>
+        <v>34334</v>
       </c>
       <c r="B38">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="C38">
-        <v>1.45027325352638</v>
+        <v>-0.9857661435315745</v>
       </c>
       <c r="D38">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="E38">
-        <v>1.854561123823983</v>
+        <v>2.795029892345036</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>38302</v>
+        <v>34424</v>
       </c>
       <c r="B39">
-        <v>2004</v>
+        <v>1994</v>
       </c>
       <c r="C39">
-        <v>1.171834509066594</v>
+        <v>0.764674004485455</v>
       </c>
       <c r="D39">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="E39">
-        <v>0.8394840956263971</v>
+        <v>0.4426857243362781</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>38398</v>
+        <v>34515</v>
       </c>
       <c r="B40">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="C40">
-        <v>-0.4140812789778514</v>
+        <v>2.525367061038386</v>
       </c>
       <c r="D40">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="E40">
-        <v>-0.592144173234066</v>
+        <v>2.890876292836841</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>38484</v>
+        <v>34607</v>
       </c>
       <c r="B41">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="C41">
-        <v>1.849854064762901</v>
+        <v>3.429002849571927</v>
       </c>
       <c r="D41">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="E41">
-        <v>2.608452643869552</v>
+        <v>4.947432979682831</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>38575</v>
+        <v>34699</v>
       </c>
       <c r="B42">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="C42">
-        <v>0.937266813805393</v>
+        <v>3.052254893522388</v>
       </c>
       <c r="D42">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="E42">
-        <v>1.008922422460712</v>
+        <v>3.383052772393214</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>38671</v>
+        <v>34789</v>
       </c>
       <c r="B43">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="C43">
-        <v>1.120380359544382</v>
+        <v>2.656402535191971</v>
       </c>
       <c r="D43">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="E43">
-        <v>1.940699468213469</v>
+        <v>2.501682193709187</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>38762</v>
+        <v>34880</v>
       </c>
       <c r="B44">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="C44">
-        <v>1.003138151489602</v>
+        <v>1.86590761958525</v>
       </c>
       <c r="D44">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E44">
-        <v>0.8498851441346433</v>
+        <v>1.408414909230937</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>38848</v>
+        <v>34948</v>
       </c>
       <c r="B45">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="C45">
-        <v>1.134182589932542</v>
+        <v>2.654165305041922</v>
       </c>
       <c r="D45">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E45">
-        <v>0.9849328351749564</v>
+        <v>3.193709999460959</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>38943</v>
+        <v>35040</v>
       </c>
       <c r="B46">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="C46">
-        <v>2.509199479510515</v>
+        <v>2.234710814035812</v>
       </c>
       <c r="D46">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E46">
-        <v>3.352121358864624</v>
+        <v>1.463127579670287</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>39035</v>
+        <v>35131</v>
       </c>
       <c r="B47">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="C47">
-        <v>2.691354324129258</v>
+        <v>-0.5166788374649123</v>
       </c>
       <c r="D47">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="E47">
-        <v>3.187301687590338</v>
+        <v>-0.9489052377267937</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>39126</v>
+        <v>35221</v>
       </c>
       <c r="B48">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="C48">
-        <v>3.483392743453817</v>
+        <v>-0.6785505155195604</v>
       </c>
       <c r="D48">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="E48">
-        <v>3.417993895042182</v>
+        <v>-1.188578696562748</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>39217</v>
+        <v>35313</v>
       </c>
       <c r="B49">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="C49">
-        <v>3.046387543902274</v>
+        <v>1.371336976130499</v>
       </c>
       <c r="D49">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="E49">
-        <v>2.70919674139074</v>
+        <v>3.430500530262126</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>39308</v>
+        <v>35403</v>
       </c>
       <c r="B50">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="C50">
-        <v>2.470370400462363</v>
+        <v>1.595002781738275</v>
       </c>
       <c r="D50">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="E50">
-        <v>1.409701198922741</v>
+        <v>4.207635715208324</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>39400</v>
+        <v>35493</v>
       </c>
       <c r="B51">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="C51">
-        <v>2.652245539637632</v>
+        <v>1.638340136177918</v>
       </c>
       <c r="D51">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="E51">
-        <v>2.158031012958861</v>
+        <v>1.199618656731283</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>39492</v>
+        <v>35586</v>
       </c>
       <c r="B52">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="C52">
-        <v>1.628419290219707</v>
+        <v>1.695006817304967</v>
       </c>
       <c r="D52">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E52">
-        <v>1.602387892266655</v>
+        <v>1.278023271204054</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>39583</v>
+        <v>35683</v>
       </c>
       <c r="B53">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="C53">
-        <v>3.696216801135943</v>
+        <v>2.404582467128114</v>
       </c>
       <c r="D53">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E53">
-        <v>4.482779680928051</v>
+        <v>3.152352039472572</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>39674</v>
+        <v>35768</v>
       </c>
       <c r="B54">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="C54">
-        <v>1.720874891586854</v>
+        <v>2.499560583078497</v>
       </c>
       <c r="D54">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E54">
-        <v>0.3117723978018017</v>
+        <v>3.492506333467071</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>39765</v>
+        <v>35881</v>
       </c>
       <c r="B55">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="C55">
-        <v>1.327195601304898</v>
+        <v>1.912940098790661</v>
       </c>
       <c r="D55">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="E55">
-        <v>-1.941693908020603</v>
+        <v>1.694922516109876</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>39857</v>
+        <v>35950</v>
       </c>
       <c r="B56">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="C56">
-        <v>-5.628805975317519</v>
+        <v>2.847469613938181</v>
       </c>
       <c r="D56">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E56">
-        <v>-6.207375383736391</v>
+        <v>2.968999233486636</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>39948</v>
+        <v>36047</v>
       </c>
       <c r="B57">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="C57">
-        <v>-10.1884206506174</v>
+        <v>2.81077400804024</v>
       </c>
       <c r="D57">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E57">
-        <v>-12.44886541640216</v>
+        <v>2.168644690046584</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>40038</v>
+        <v>36132</v>
       </c>
       <c r="B58">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="C58">
-        <v>-6.289538653430182</v>
+        <v>2.812603855740181</v>
       </c>
       <c r="D58">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E58">
-        <v>-3.692851844557188</v>
+        <v>2.334197296693863</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>40130</v>
+        <v>36223</v>
       </c>
       <c r="B59">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="C59">
-        <v>-4.803590807538871</v>
+        <v>0.4154932394832223</v>
       </c>
       <c r="D59">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="E59">
-        <v>2.536922056245872</v>
+        <v>0.1667676276564611</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>40221</v>
+        <v>36319</v>
       </c>
       <c r="B60">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="C60">
-        <v>1.193735781071092</v>
+        <v>0.8798915307165922</v>
       </c>
       <c r="D60">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="E60">
-        <v>0.9937444821978225</v>
+        <v>0.9767994936995539</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>40310</v>
+        <v>36412</v>
       </c>
       <c r="B61">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="C61">
-        <v>1.026818295716803</v>
+        <v>0.6432491781942717</v>
       </c>
       <c r="D61">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="E61">
-        <v>0.6731564222281827</v>
+        <v>0.7060477938485743</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>40403</v>
+        <v>36501</v>
       </c>
       <c r="B62">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="C62">
-        <v>3.968630146968088</v>
+        <v>1.188004848513446</v>
       </c>
       <c r="D62">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="E62">
-        <v>6.649078928583951</v>
+        <v>2.032004888754391</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>40494</v>
+        <v>36587</v>
       </c>
       <c r="B63">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="C63">
-        <v>3.776429555840499</v>
+        <v>2.89324554678807</v>
       </c>
       <c r="D63">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="E63">
-        <v>5.124900822223233</v>
+        <v>3.030131733635244</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>40589</v>
+        <v>36676</v>
       </c>
       <c r="B64">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="C64">
-        <v>2.422077319867544</v>
+        <v>2.656958100102846</v>
       </c>
       <c r="D64">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="E64">
-        <v>1.914299090637628</v>
+        <v>2.731710176905877</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>40676</v>
+        <v>36767</v>
       </c>
       <c r="B65">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="C65">
-        <v>4.330112454756896</v>
+        <v>3.398546648180578</v>
       </c>
       <c r="D65">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="E65">
-        <v>4.541390901327569</v>
+        <v>4.167119510522754</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>40771</v>
+        <v>36858</v>
       </c>
       <c r="B66">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="C66">
-        <v>3.175645069966238</v>
+        <v>3.277038745546235</v>
       </c>
       <c r="D66">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="E66">
-        <v>2.091045465444052</v>
+        <v>3.09884301635126</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>40862</v>
+        <v>36951</v>
       </c>
       <c r="B67">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="C67">
-        <v>3.167941427237042</v>
+        <v>1.181852137749018</v>
       </c>
       <c r="D67">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="E67">
-        <v>1.70423418303296</v>
+        <v>0.9293919043387833</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>40954</v>
+        <v>37034</v>
       </c>
       <c r="B68">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="C68">
-        <v>0.4877127769916223</v>
+        <v>1.426159487177681</v>
       </c>
       <c r="D68">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="E68">
-        <v>0.2773818169901521</v>
+        <v>1.268063782307416</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>41044</v>
+        <v>37126</v>
       </c>
       <c r="B69">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="C69">
-        <v>1.087923448804795</v>
+        <v>0.9563223375169905</v>
       </c>
       <c r="D69">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="E69">
-        <v>1.111295745068719</v>
+        <v>0.4375407458243163</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>41135</v>
+        <v>37222</v>
       </c>
       <c r="B70">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="C70">
-        <v>1.167633177812455</v>
+        <v>0.7513248531724415</v>
       </c>
       <c r="D70">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="E70">
-        <v>1.386692168220338</v>
+        <v>-0.408724114026926</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>41228</v>
+        <v>37314</v>
       </c>
       <c r="B71">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C71">
-        <v>1.072335020576287</v>
+        <v>-0.8132369628729097</v>
       </c>
       <c r="D71">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="E71">
-        <v>0.990934028412549</v>
+        <v>-0.8985592391854702</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>41319</v>
+        <v>37399</v>
       </c>
       <c r="B72">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="C72">
-        <v>-0.9509348096018111</v>
+        <v>-0.09079305020236461</v>
       </c>
       <c r="D72">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="E72">
-        <v>-1.268789711283325</v>
+        <v>0.1072756205915404</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>41409</v>
+        <v>37490</v>
       </c>
       <c r="B73">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="C73">
-        <v>-0.6600930445666675</v>
+        <v>0.366162710493767</v>
       </c>
       <c r="D73">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="E73">
-        <v>-0.7631906159002333</v>
+        <v>1.108286614369702</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>41500</v>
+        <v>37581</v>
       </c>
       <c r="B74">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="C74">
-        <v>0.591869411397794</v>
+        <v>0.2537741062064169</v>
       </c>
       <c r="D74">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="E74">
-        <v>1.961172615540074</v>
+        <v>0.9118162660485263</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>41592</v>
+        <v>37678</v>
       </c>
       <c r="B75">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="C75">
-        <v>0.5676944965793185</v>
+        <v>0.4092409882227255</v>
       </c>
       <c r="D75">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="E75">
-        <v>1.859803271823757</v>
+        <v>0.3201964805208179</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>41684</v>
+        <v>37756</v>
       </c>
       <c r="B76">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="C76">
-        <v>1.538268037357837</v>
+        <v>-0.2852992240488517</v>
       </c>
       <c r="D76">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="E76">
-        <v>1.461552604622374</v>
+        <v>-0.6434466511772374</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>41774</v>
+        <v>37847</v>
       </c>
       <c r="B77">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="C77">
-        <v>2.439056157886133</v>
+        <v>-0.2969170546321287</v>
       </c>
       <c r="D77">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="E77">
-        <v>2.712995226103132</v>
+        <v>-0.480369672753056</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>41865</v>
+        <v>37938</v>
       </c>
       <c r="B78">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="C78">
-        <v>1.372208106350903</v>
+        <v>-0.1535080579381121</v>
       </c>
       <c r="D78">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="E78">
-        <v>0.4337400582428597</v>
+        <v>0.3435726964089891</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>41957</v>
+        <v>38029</v>
       </c>
       <c r="B79">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="C79">
-        <v>1.417171832295883</v>
+        <v>0.744905948692054</v>
       </c>
       <c r="D79">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="E79">
-        <v>0.05331272828721367</v>
+        <v>0.8419429008595269</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>42048</v>
+        <v>38120</v>
       </c>
       <c r="B80">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="C80">
-        <v>1.692797927083323</v>
+        <v>1.25935754237172</v>
       </c>
       <c r="D80">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="E80">
-        <v>1.973705200986098</v>
+        <v>1.52755625946297</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>42137</v>
+        <v>38211</v>
       </c>
       <c r="B81">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="C81">
-        <v>1.478929861176237</v>
+        <v>1.45027325352638</v>
       </c>
       <c r="D81">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="E81">
-        <v>1.676382600382564</v>
+        <v>1.854561123823983</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>42230</v>
+        <v>38302</v>
       </c>
       <c r="B82">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="C82">
-        <v>1.523904146864052</v>
+        <v>1.171834509066594</v>
       </c>
       <c r="D82">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="E82">
-        <v>1.644727669734758</v>
+        <v>0.8394840956263971</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>42321</v>
+        <v>38398</v>
       </c>
       <c r="B83">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="C83">
-        <v>1.475252114130599</v>
+        <v>-0.4140812789778514</v>
       </c>
       <c r="D83">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="E83">
-        <v>1.442973638880907</v>
+        <v>-0.592144173234066</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>42412</v>
+        <v>38484</v>
       </c>
       <c r="B84">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="C84">
-        <v>1.124679214395008</v>
+        <v>1.849854064762901</v>
       </c>
       <c r="D84">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E84">
-        <v>1.09252385922316</v>
+        <v>2.608452643869552</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>42503</v>
+        <v>38575</v>
       </c>
       <c r="B85">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="C85">
-        <v>1.880356773996161</v>
+        <v>0.937266813805393</v>
       </c>
       <c r="D85">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E85">
-        <v>2.143034813277178</v>
+        <v>1.008922422460712</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>42594</v>
+        <v>38671</v>
       </c>
       <c r="B86">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="C86">
-        <v>1.953749061970145</v>
+        <v>1.120380359544382</v>
       </c>
       <c r="D86">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E86">
-        <v>2.047551517209345</v>
+        <v>1.940699468213469</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>42689</v>
+        <v>38762</v>
       </c>
       <c r="B87">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="C87">
-        <v>1.71887541289224</v>
+        <v>1.003138151489602</v>
       </c>
       <c r="D87">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="E87">
-        <v>1.076548192761484</v>
+        <v>0.8498851441346433</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>42780</v>
+        <v>38848</v>
       </c>
       <c r="B88">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="C88">
-        <v>1.301528611721214</v>
+        <v>1.134182589932542</v>
       </c>
       <c r="D88">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E88">
-        <v>1.329301336203526</v>
+        <v>0.9849328351749564</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>42867</v>
+        <v>38943</v>
       </c>
       <c r="B89">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="C89">
-        <v>1.929223532179036</v>
+        <v>2.509199479510515</v>
       </c>
       <c r="D89">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E89">
-        <v>2.187377386010447</v>
+        <v>3.352121358864624</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>42962</v>
+        <v>39035</v>
       </c>
       <c r="B90">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="C90">
-        <v>2.280989617734819</v>
+        <v>2.691354324129258</v>
       </c>
       <c r="D90">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E90">
-        <v>2.613842204809647</v>
+        <v>3.187301687590338</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>43053</v>
+        <v>39126</v>
       </c>
       <c r="B91">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="C91">
-        <v>2.581636142651922</v>
+        <v>3.483392743453817</v>
       </c>
       <c r="D91">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="E91">
-        <v>3.064375402422015</v>
+        <v>3.417993895042182</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>43145</v>
+        <v>39217</v>
       </c>
       <c r="B92">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="C92">
-        <v>2.646862898935809</v>
+        <v>3.046387543902274</v>
       </c>
       <c r="D92">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E92">
-        <v>2.623623887642434</v>
+        <v>2.70919674139074</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>43235</v>
+        <v>39308</v>
       </c>
       <c r="B93">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="C93">
-        <v>1.919825538525988</v>
+        <v>2.470370400462363</v>
       </c>
       <c r="D93">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E93">
-        <v>1.616739045460869</v>
+        <v>1.409701198922741</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>43326</v>
+        <v>39400</v>
       </c>
       <c r="B94">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="C94">
-        <v>1.857727179172031</v>
+        <v>2.652245539637632</v>
       </c>
       <c r="D94">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E94">
-        <v>1.70589079202994</v>
+        <v>2.158031012958861</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>43418</v>
+        <v>39492</v>
       </c>
       <c r="B95">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="C95">
-        <v>1.471137749280693</v>
+        <v>1.628419290219707</v>
       </c>
       <c r="D95">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="E95">
-        <v>0.1137080120319656</v>
+        <v>1.602387892266655</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>43510</v>
+        <v>39583</v>
       </c>
       <c r="B96">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="C96">
-        <v>-0.1366722846576462</v>
+        <v>3.696216801135943</v>
       </c>
       <c r="D96">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="E96">
-        <v>-0.216966222090853</v>
+        <v>4.482779680928051</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>43600</v>
+        <v>39674</v>
       </c>
       <c r="B97">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="C97">
-        <v>0.8478136117613833</v>
+        <v>1.720874891586854</v>
       </c>
       <c r="D97">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="E97">
-        <v>1.153059686387214</v>
+        <v>0.3117723978018017</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>43691</v>
+        <v>39765</v>
       </c>
       <c r="B98">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="C98">
-        <v>0.6160948373339581</v>
+        <v>1.327195601304898</v>
       </c>
       <c r="D98">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="E98">
-        <v>0.2985190469646293</v>
+        <v>-1.941693908020603</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>43783</v>
+        <v>39857</v>
       </c>
       <c r="B99">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="C99">
-        <v>0.508332909595044</v>
+        <v>-5.628805975317519</v>
       </c>
       <c r="D99">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="E99">
-        <v>-0.1203207525434236</v>
+        <v>-6.207375383736391</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>43875</v>
+        <v>39948</v>
       </c>
       <c r="B100">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C100">
-        <v>0.289128389497173</v>
+        <v>-10.1884206506174</v>
       </c>
       <c r="D100">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="E100">
-        <v>0.335512364592172</v>
+        <v>-12.44886541640216</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>43966</v>
+        <v>40038</v>
       </c>
       <c r="B101">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C101">
-        <v>-4.237342230872454</v>
+        <v>-6.289538653430182</v>
       </c>
       <c r="D101">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="E101">
-        <v>-5.891534789017571</v>
+        <v>-3.692851844557188</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>44068</v>
+        <v>40130</v>
       </c>
       <c r="B102">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C102">
-        <v>-13.33719465903573</v>
+        <v>-4.803590807538871</v>
       </c>
       <c r="D102">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="E102">
-        <v>-25.87306245687905</v>
+        <v>2.536922056245872</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>44159</v>
+        <v>40221</v>
       </c>
       <c r="B103">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="C103">
-        <v>-5.494775307949129</v>
+        <v>1.193735781071092</v>
       </c>
       <c r="D103">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="E103">
-        <v>8.235743591092737</v>
+        <v>0.9937444821978225</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>44251</v>
+        <v>40310</v>
       </c>
       <c r="B104">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C104">
-        <v>10.79099055951989</v>
+        <v>1.026818295716803</v>
       </c>
       <c r="D104">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="E104">
-        <v>12.7631036368576</v>
+        <v>0.6731564222281827</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>44341</v>
+        <v>40403</v>
       </c>
       <c r="B105">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C105">
-        <v>-1.195442653096257</v>
+        <v>3.968630146968088</v>
       </c>
       <c r="D105">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="E105">
-        <v>-4.00599668311078</v>
+        <v>6.649078928583951</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>44432</v>
+        <v>40494</v>
       </c>
       <c r="B106">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C106">
-        <v>1.458368211431327</v>
+        <v>3.776429555840499</v>
       </c>
       <c r="D106">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="E106">
-        <v>1.809721427256239</v>
+        <v>5.124900822223233</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>44525</v>
+        <v>40589</v>
       </c>
       <c r="B107">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="C107">
-        <v>3.149343082976164</v>
+        <v>2.422077319867544</v>
       </c>
       <c r="D107">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="E107">
-        <v>7.432336632701175</v>
+        <v>1.914299090637628</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>44617</v>
+        <v>40676</v>
       </c>
       <c r="B108">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="C108">
-        <v>2.168692816501894</v>
+        <v>4.330112454756896</v>
       </c>
       <c r="D108">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="E108">
-        <v>1.290012106441241</v>
+        <v>4.541390901327569</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>44706</v>
+        <v>40771</v>
       </c>
       <c r="B109">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="C109">
-        <v>1.344786076589832</v>
+        <v>3.175645069966238</v>
       </c>
       <c r="D109">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="E109">
-        <v>0.1554161503046547</v>
+        <v>2.091045465444052</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>44798</v>
+        <v>40862</v>
       </c>
       <c r="B110">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="C110">
-        <v>2.072977160642453</v>
+        <v>3.167941427237042</v>
       </c>
       <c r="D110">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="E110">
-        <v>1.422897249742427</v>
+        <v>1.70423418303296</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>44890</v>
+        <v>40954</v>
       </c>
       <c r="B111">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="C111">
-        <v>1.995866057153428</v>
+        <v>0.4877127769916223</v>
       </c>
       <c r="D111">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="E111">
-        <v>1.189587957345273</v>
+        <v>0.2773818169901521</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>44981</v>
+        <v>41044</v>
       </c>
       <c r="B112">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="C112">
-        <v>-0.2857813535580123</v>
+        <v>1.087923448804795</v>
       </c>
       <c r="D112">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="E112">
-        <v>-0.534390352424885</v>
+        <v>1.111295745068719</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45071</v>
+        <v>41135</v>
       </c>
       <c r="B113">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="C113">
-        <v>-1.149816025990236</v>
+        <v>1.167633177812455</v>
       </c>
       <c r="D113">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="E113">
-        <v>-1.603768089243041</v>
+        <v>1.386692168220338</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45163</v>
+        <v>41228</v>
       </c>
       <c r="B114">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="C114">
-        <v>-0.256849276026061</v>
+        <v>1.072335020576287</v>
       </c>
       <c r="D114">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="E114">
-        <v>-0.07048608765618525</v>
+        <v>0.990934028412549</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45254</v>
+        <v>41319</v>
       </c>
       <c r="B115">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="C115">
-        <v>-0.1168430792840458</v>
+        <v>-0.9509348096018111</v>
       </c>
       <c r="D115">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="E115">
-        <v>-0.1427298585871872</v>
+        <v>-1.268789711283325</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45345</v>
+        <v>41409</v>
       </c>
       <c r="B116">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="C116">
-        <v>-0.6642037199584894</v>
+        <v>-0.6600930445666675</v>
       </c>
       <c r="D116">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="E116">
-        <v>-0.777840993597545</v>
+        <v>-0.7631906159002333</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45436</v>
+        <v>41500</v>
       </c>
       <c r="B117">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="C117">
-        <v>-0.213677328227746</v>
+        <v>0.591869411397794</v>
       </c>
       <c r="D117">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="E117">
-        <v>-0.1073236571678571</v>
+        <v>1.961172615540074</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45534</v>
+        <v>41592</v>
       </c>
       <c r="B118">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="C118">
-        <v>-0.0004588987745912654</v>
+        <v>0.5676944965793185</v>
       </c>
       <c r="D118">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="E118">
-        <v>0.1182553978291701</v>
+        <v>1.859803271823757</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45618</v>
+        <v>41684</v>
       </c>
       <c r="B119">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="C119">
-        <v>-0.1775688094211469</v>
+        <v>1.538268037357837</v>
       </c>
       <c r="D119">
-        <v>2025</v>
+        <v>2015</v>
       </c>
       <c r="E119">
-        <v>-0.1265568156813002</v>
+        <v>1.461552604622374</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45713</v>
+        <v>41774</v>
       </c>
       <c r="B120">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="C120">
-        <v>-0.3815867690989849</v>
+        <v>2.439056157886133</v>
       </c>
       <c r="D120">
-        <v>2026</v>
+        <v>2015</v>
       </c>
       <c r="E120">
-        <v>-0.396686851644934</v>
+        <v>2.712995226103132</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
+        <v>41865</v>
+      </c>
+      <c r="B121">
+        <v>2014</v>
+      </c>
+      <c r="C121">
+        <v>1.372208106350903</v>
+      </c>
+      <c r="D121">
+        <v>2015</v>
+      </c>
+      <c r="E121">
+        <v>0.4337400582428597</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2">
+        <v>41957</v>
+      </c>
+      <c r="B122">
+        <v>2014</v>
+      </c>
+      <c r="C122">
+        <v>1.417171832295883</v>
+      </c>
+      <c r="D122">
+        <v>2015</v>
+      </c>
+      <c r="E122">
+        <v>0.05331272828721367</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2">
+        <v>42048</v>
+      </c>
+      <c r="B123">
+        <v>2015</v>
+      </c>
+      <c r="C123">
+        <v>1.692797927083323</v>
+      </c>
+      <c r="D123">
+        <v>2016</v>
+      </c>
+      <c r="E123">
+        <v>1.973705200986098</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
+        <v>42137</v>
+      </c>
+      <c r="B124">
+        <v>2015</v>
+      </c>
+      <c r="C124">
+        <v>1.478929861176237</v>
+      </c>
+      <c r="D124">
+        <v>2016</v>
+      </c>
+      <c r="E124">
+        <v>1.676382600382564</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2">
+        <v>42230</v>
+      </c>
+      <c r="B125">
+        <v>2015</v>
+      </c>
+      <c r="C125">
+        <v>1.523904146864052</v>
+      </c>
+      <c r="D125">
+        <v>2016</v>
+      </c>
+      <c r="E125">
+        <v>1.644727669734758</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2">
+        <v>42321</v>
+      </c>
+      <c r="B126">
+        <v>2015</v>
+      </c>
+      <c r="C126">
+        <v>1.475252114130599</v>
+      </c>
+      <c r="D126">
+        <v>2016</v>
+      </c>
+      <c r="E126">
+        <v>1.442973638880907</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2">
+        <v>42412</v>
+      </c>
+      <c r="B127">
+        <v>2016</v>
+      </c>
+      <c r="C127">
+        <v>1.124679214395008</v>
+      </c>
+      <c r="D127">
+        <v>2017</v>
+      </c>
+      <c r="E127">
+        <v>1.09252385922316</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
+        <v>42503</v>
+      </c>
+      <c r="B128">
+        <v>2016</v>
+      </c>
+      <c r="C128">
+        <v>1.880356773996161</v>
+      </c>
+      <c r="D128">
+        <v>2017</v>
+      </c>
+      <c r="E128">
+        <v>2.143034813277178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
+        <v>42594</v>
+      </c>
+      <c r="B129">
+        <v>2016</v>
+      </c>
+      <c r="C129">
+        <v>1.953749061970145</v>
+      </c>
+      <c r="D129">
+        <v>2017</v>
+      </c>
+      <c r="E129">
+        <v>2.047551517209345</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <v>42689</v>
+      </c>
+      <c r="B130">
+        <v>2016</v>
+      </c>
+      <c r="C130">
+        <v>1.71887541289224</v>
+      </c>
+      <c r="D130">
+        <v>2017</v>
+      </c>
+      <c r="E130">
+        <v>1.076548192761484</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>42780</v>
+      </c>
+      <c r="B131">
+        <v>2017</v>
+      </c>
+      <c r="C131">
+        <v>1.301528611721214</v>
+      </c>
+      <c r="D131">
+        <v>2018</v>
+      </c>
+      <c r="E131">
+        <v>1.329301336203526</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>42867</v>
+      </c>
+      <c r="B132">
+        <v>2017</v>
+      </c>
+      <c r="C132">
+        <v>1.929223532179036</v>
+      </c>
+      <c r="D132">
+        <v>2018</v>
+      </c>
+      <c r="E132">
+        <v>2.187377386010447</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B133">
+        <v>2017</v>
+      </c>
+      <c r="C133">
+        <v>2.280989617734819</v>
+      </c>
+      <c r="D133">
+        <v>2018</v>
+      </c>
+      <c r="E133">
+        <v>2.613842204809647</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>43053</v>
+      </c>
+      <c r="B134">
+        <v>2017</v>
+      </c>
+      <c r="C134">
+        <v>2.581636142651922</v>
+      </c>
+      <c r="D134">
+        <v>2018</v>
+      </c>
+      <c r="E134">
+        <v>3.064375402422015</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B135">
+        <v>2018</v>
+      </c>
+      <c r="C135">
+        <v>2.646862898935809</v>
+      </c>
+      <c r="D135">
+        <v>2019</v>
+      </c>
+      <c r="E135">
+        <v>2.623623887642434</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B136">
+        <v>2018</v>
+      </c>
+      <c r="C136">
+        <v>1.919825538525988</v>
+      </c>
+      <c r="D136">
+        <v>2019</v>
+      </c>
+      <c r="E136">
+        <v>1.616739045460869</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>43326</v>
+      </c>
+      <c r="B137">
+        <v>2018</v>
+      </c>
+      <c r="C137">
+        <v>1.857727179172031</v>
+      </c>
+      <c r="D137">
+        <v>2019</v>
+      </c>
+      <c r="E137">
+        <v>1.70589079202994</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>43418</v>
+      </c>
+      <c r="B138">
+        <v>2018</v>
+      </c>
+      <c r="C138">
+        <v>1.471137749280693</v>
+      </c>
+      <c r="D138">
+        <v>2019</v>
+      </c>
+      <c r="E138">
+        <v>0.1137080120319656</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>43510</v>
+      </c>
+      <c r="B139">
+        <v>2019</v>
+      </c>
+      <c r="C139">
+        <v>-0.1366722846576462</v>
+      </c>
+      <c r="D139">
+        <v>2020</v>
+      </c>
+      <c r="E139">
+        <v>-0.216966222090853</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>43600</v>
+      </c>
+      <c r="B140">
+        <v>2019</v>
+      </c>
+      <c r="C140">
+        <v>0.8478136117613833</v>
+      </c>
+      <c r="D140">
+        <v>2020</v>
+      </c>
+      <c r="E140">
+        <v>1.153059686387214</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>43691</v>
+      </c>
+      <c r="B141">
+        <v>2019</v>
+      </c>
+      <c r="C141">
+        <v>0.6160948373339581</v>
+      </c>
+      <c r="D141">
+        <v>2020</v>
+      </c>
+      <c r="E141">
+        <v>0.2985190469646293</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>43783</v>
+      </c>
+      <c r="B142">
+        <v>2019</v>
+      </c>
+      <c r="C142">
+        <v>0.508332909595044</v>
+      </c>
+      <c r="D142">
+        <v>2020</v>
+      </c>
+      <c r="E142">
+        <v>-0.1203207525434236</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B143">
+        <v>2020</v>
+      </c>
+      <c r="C143">
+        <v>0.289128389497173</v>
+      </c>
+      <c r="D143">
+        <v>2021</v>
+      </c>
+      <c r="E143">
+        <v>0.335512364592172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B144">
+        <v>2020</v>
+      </c>
+      <c r="C144">
+        <v>-4.237342230872454</v>
+      </c>
+      <c r="D144">
+        <v>2021</v>
+      </c>
+      <c r="E144">
+        <v>-5.891534789017571</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B145">
+        <v>2020</v>
+      </c>
+      <c r="C145">
+        <v>-13.33719465903573</v>
+      </c>
+      <c r="D145">
+        <v>2021</v>
+      </c>
+      <c r="E145">
+        <v>-25.87306245687905</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>44159</v>
+      </c>
+      <c r="B146">
+        <v>2020</v>
+      </c>
+      <c r="C146">
+        <v>-5.494775307949129</v>
+      </c>
+      <c r="D146">
+        <v>2021</v>
+      </c>
+      <c r="E146">
+        <v>8.235743591092737</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B147">
+        <v>2021</v>
+      </c>
+      <c r="C147">
+        <v>10.79099055951989</v>
+      </c>
+      <c r="D147">
+        <v>2022</v>
+      </c>
+      <c r="E147">
+        <v>12.7631036368576</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>44341</v>
+      </c>
+      <c r="B148">
+        <v>2021</v>
+      </c>
+      <c r="C148">
+        <v>-1.195442653096257</v>
+      </c>
+      <c r="D148">
+        <v>2022</v>
+      </c>
+      <c r="E148">
+        <v>-4.00599668311078</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>44432</v>
+      </c>
+      <c r="B149">
+        <v>2021</v>
+      </c>
+      <c r="C149">
+        <v>1.458368211431327</v>
+      </c>
+      <c r="D149">
+        <v>2022</v>
+      </c>
+      <c r="E149">
+        <v>1.809721427256239</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>44525</v>
+      </c>
+      <c r="B150">
+        <v>2021</v>
+      </c>
+      <c r="C150">
+        <v>3.149343082976164</v>
+      </c>
+      <c r="D150">
+        <v>2022</v>
+      </c>
+      <c r="E150">
+        <v>7.432336632701175</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B151">
+        <v>2022</v>
+      </c>
+      <c r="C151">
+        <v>2.168692816501894</v>
+      </c>
+      <c r="D151">
+        <v>2023</v>
+      </c>
+      <c r="E151">
+        <v>1.290012106441241</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B152">
+        <v>2022</v>
+      </c>
+      <c r="C152">
+        <v>1.344786076589832</v>
+      </c>
+      <c r="D152">
+        <v>2023</v>
+      </c>
+      <c r="E152">
+        <v>0.1554161503046547</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>44798</v>
+      </c>
+      <c r="B153">
+        <v>2022</v>
+      </c>
+      <c r="C153">
+        <v>2.072977160642453</v>
+      </c>
+      <c r="D153">
+        <v>2023</v>
+      </c>
+      <c r="E153">
+        <v>1.422897249742427</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>44890</v>
+      </c>
+      <c r="B154">
+        <v>2022</v>
+      </c>
+      <c r="C154">
+        <v>1.995866057153428</v>
+      </c>
+      <c r="D154">
+        <v>2023</v>
+      </c>
+      <c r="E154">
+        <v>1.189587957345273</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B155">
+        <v>2023</v>
+      </c>
+      <c r="C155">
+        <v>-0.2857813535580123</v>
+      </c>
+      <c r="D155">
+        <v>2024</v>
+      </c>
+      <c r="E155">
+        <v>-0.534390352424885</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B156">
+        <v>2023</v>
+      </c>
+      <c r="C156">
+        <v>-1.149816025990236</v>
+      </c>
+      <c r="D156">
+        <v>2024</v>
+      </c>
+      <c r="E156">
+        <v>-1.603768089243041</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B157">
+        <v>2023</v>
+      </c>
+      <c r="C157">
+        <v>-0.256849276026061</v>
+      </c>
+      <c r="D157">
+        <v>2024</v>
+      </c>
+      <c r="E157">
+        <v>-0.07048608765618525</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B158">
+        <v>2023</v>
+      </c>
+      <c r="C158">
+        <v>-0.1168430792840458</v>
+      </c>
+      <c r="D158">
+        <v>2024</v>
+      </c>
+      <c r="E158">
+        <v>-0.1427298585871872</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B159">
+        <v>2024</v>
+      </c>
+      <c r="C159">
+        <v>-0.6642037199584894</v>
+      </c>
+      <c r="D159">
+        <v>2025</v>
+      </c>
+      <c r="E159">
+        <v>-0.777840993597545</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>45436</v>
+      </c>
+      <c r="B160">
+        <v>2024</v>
+      </c>
+      <c r="C160">
+        <v>-0.213677328227746</v>
+      </c>
+      <c r="D160">
+        <v>2025</v>
+      </c>
+      <c r="E160">
+        <v>-0.1073236571678571</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>45534</v>
+      </c>
+      <c r="B161">
+        <v>2024</v>
+      </c>
+      <c r="C161">
+        <v>-0.0004588987745912654</v>
+      </c>
+      <c r="D161">
+        <v>2025</v>
+      </c>
+      <c r="E161">
+        <v>0.1182553978291701</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>45618</v>
+      </c>
+      <c r="B162">
+        <v>2024</v>
+      </c>
+      <c r="C162">
+        <v>-0.1775688094211469</v>
+      </c>
+      <c r="D162">
+        <v>2025</v>
+      </c>
+      <c r="E162">
+        <v>-0.1265568156813002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>45713</v>
+      </c>
+      <c r="B163">
+        <v>2025</v>
+      </c>
+      <c r="C163">
+        <v>-0.3815867690989849</v>
+      </c>
+      <c r="D163">
+        <v>2026</v>
+      </c>
+      <c r="E163">
+        <v>-0.396686851644934</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
         <v>45800</v>
       </c>
-      <c r="B121">
+      <c r="B164">
         <v>2025</v>
       </c>
-      <c r="C121">
+      <c r="C164">
         <v>0.4937964215598223</v>
       </c>
-      <c r="D121">
+      <c r="D164">
         <v>2026</v>
       </c>
-      <c r="E121">
+      <c r="E164">
         <v>0.8228551885782087</v>
       </c>
     </row>

--- a/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_SMA_2_9_full.xlsx
+++ b/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_SMA_2_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2772 +417,2500 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>31047</v>
+        <v>32508</v>
       </c>
       <c r="B2">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="C2">
-        <v>2.833670241322217</v>
+        <v>3.509161092519553</v>
       </c>
       <c r="D2">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="E2">
-        <v>4.978977805976226</v>
+        <v>5.511076843601681</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>31137</v>
+        <v>32598</v>
       </c>
       <c r="B3">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="C3">
-        <v>5.596594930468801</v>
+        <v>4.891617427153694</v>
       </c>
       <c r="D3">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E3">
-        <v>5.985830497824796</v>
+        <v>4.748149098019105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>31228</v>
+        <v>32689</v>
       </c>
       <c r="B4">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="C4">
-        <v>1.058157908195101</v>
+        <v>4.646141329820397</v>
       </c>
       <c r="D4">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E4">
-        <v>-0.2746413702905404</v>
+        <v>4.409069002718513</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>31320</v>
+        <v>32781</v>
       </c>
       <c r="B5">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="C5">
-        <v>2.049376924573876</v>
+        <v>3.780767508311</v>
       </c>
       <c r="D5">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E5">
-        <v>1.961182300171815</v>
+        <v>2.47008531625017</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>31412</v>
+        <v>32873</v>
       </c>
       <c r="B6">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="C6">
-        <v>2.740628897120945</v>
+        <v>3.898460078540933</v>
       </c>
       <c r="D6">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E6">
-        <v>4.840042388885646</v>
+        <v>2.951715842334024</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>31502</v>
+        <v>32963</v>
       </c>
       <c r="B7">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C7">
-        <v>3.577084802522279</v>
+        <v>4.174743032083628</v>
       </c>
       <c r="D7">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E7">
-        <v>3.394193257251921</v>
+        <v>4.405123000877609</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>31593</v>
+        <v>33054</v>
       </c>
       <c r="B8">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C8">
-        <v>0.613400232493766</v>
+        <v>6.234545104864941</v>
       </c>
       <c r="D8">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E8">
-        <v>-0.6878195673301057</v>
+        <v>7.271550582979214</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>31685</v>
+        <v>33146</v>
       </c>
       <c r="B9">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C9">
-        <v>1.98708746686036</v>
+        <v>4.810354680185491</v>
       </c>
       <c r="D9">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E9">
-        <v>2.419145950681045</v>
+        <v>4.067805359878718</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>31777</v>
+        <v>33238</v>
       </c>
       <c r="B10">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C10">
-        <v>2.269459987912947</v>
+        <v>5.356103277865332</v>
       </c>
       <c r="D10">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E10">
-        <v>3.593781657196393</v>
+        <v>6.3181560832964</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>31867</v>
+        <v>33328</v>
       </c>
       <c r="B11">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C11">
-        <v>3.682422843948863</v>
+        <v>7.467907004174634</v>
       </c>
       <c r="D11">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E11">
-        <v>3.67088329873857</v>
+        <v>7.75780161715891</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>31958</v>
+        <v>33419</v>
       </c>
       <c r="B12">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C12">
-        <v>-2.809251799599333</v>
+        <v>9.12959361095953</v>
       </c>
       <c r="D12">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E12">
-        <v>-5.22296739181829</v>
+        <v>10.06345753894098</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>32050</v>
+        <v>33511</v>
       </c>
       <c r="B13">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C13">
-        <v>0.7180318372854266</v>
+        <v>7.65186587692519</v>
       </c>
       <c r="D13">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E13">
-        <v>2.823118561151494</v>
+        <v>6.75990437101035</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>32142</v>
+        <v>33603</v>
       </c>
       <c r="B14">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C14">
-        <v>1.253514454810789</v>
+        <v>5.955905607167122</v>
       </c>
       <c r="D14">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E14">
-        <v>5.084502077712005</v>
+        <v>-0.005898890116151634</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>32233</v>
+        <v>33694</v>
       </c>
       <c r="B15">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C15">
-        <v>5.322178424298007</v>
+        <v>1.407223054900464</v>
       </c>
       <c r="D15">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E15">
-        <v>5.268626236616925</v>
+        <v>1.540180738166597</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>32324</v>
+        <v>33785</v>
       </c>
       <c r="B16">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C16">
-        <v>1.311815945521522</v>
+        <v>3.770303686471776</v>
       </c>
       <c r="D16">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E16">
-        <v>-0.2360507986455929</v>
+        <v>4.833608027690683</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>32416</v>
+        <v>33877</v>
       </c>
       <c r="B17">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C17">
-        <v>3.097251837425286</v>
+        <v>2.363611241596497</v>
       </c>
       <c r="D17">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E17">
-        <v>3.798547520940621</v>
+        <v>1.653235005316933</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>32508</v>
+        <v>33969</v>
       </c>
       <c r="B18">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C18">
-        <v>3.509161092519553</v>
+        <v>1.850401149566561</v>
       </c>
       <c r="D18">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E18">
-        <v>5.511076843601681</v>
+        <v>-0.4495646332120296</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>32598</v>
+        <v>34059</v>
       </c>
       <c r="B19">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="C19">
-        <v>4.891617427153694</v>
+        <v>-0.5442533711950692</v>
       </c>
       <c r="D19">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E19">
-        <v>4.748149098019105</v>
+        <v>-0.5665334908269704</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>32689</v>
+        <v>34150</v>
       </c>
       <c r="B20">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="C20">
-        <v>4.646141329820397</v>
+        <v>-3.631379003451563</v>
       </c>
       <c r="D20">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E20">
-        <v>4.409069002718513</v>
+        <v>-4.837330717035071</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>32781</v>
+        <v>34242</v>
       </c>
       <c r="B21">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="C21">
-        <v>3.780767508311</v>
+        <v>-1.790701590087718</v>
       </c>
       <c r="D21">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E21">
-        <v>2.47008531625017</v>
+        <v>-0.625345630378904</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>32873</v>
+        <v>34334</v>
       </c>
       <c r="B22">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="C22">
-        <v>3.898460078540933</v>
+        <v>-0.9857661435315745</v>
       </c>
       <c r="D22">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E22">
-        <v>2.951715842334024</v>
+        <v>2.795029892345036</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>32963</v>
+        <v>34424</v>
       </c>
       <c r="B23">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C23">
-        <v>4.174743032083628</v>
+        <v>0.764674004485455</v>
       </c>
       <c r="D23">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="E23">
-        <v>4.405123000877609</v>
+        <v>0.4426857243362781</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>33054</v>
+        <v>34515</v>
       </c>
       <c r="B24">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C24">
-        <v>6.234545104864941</v>
+        <v>2.525367061038386</v>
       </c>
       <c r="D24">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="E24">
-        <v>7.271550582979214</v>
+        <v>2.890876292836841</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>33146</v>
+        <v>34607</v>
       </c>
       <c r="B25">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C25">
-        <v>4.810354680185491</v>
+        <v>3.429002849571927</v>
       </c>
       <c r="D25">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="E25">
-        <v>4.067805359878718</v>
+        <v>4.947432979682831</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>33238</v>
+        <v>34699</v>
       </c>
       <c r="B26">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C26">
-        <v>5.356103277865332</v>
+        <v>3.052254893522388</v>
       </c>
       <c r="D26">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="E26">
-        <v>6.3181560832964</v>
+        <v>3.383052772393214</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>33328</v>
+        <v>34789</v>
       </c>
       <c r="B27">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C27">
-        <v>7.467907004174634</v>
+        <v>2.656402535191971</v>
       </c>
       <c r="D27">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E27">
-        <v>7.75780161715891</v>
+        <v>2.501682193709187</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>33419</v>
+        <v>34880</v>
       </c>
       <c r="B28">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C28">
-        <v>9.12959361095953</v>
+        <v>1.86590761958525</v>
       </c>
       <c r="D28">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E28">
-        <v>10.06345753894098</v>
+        <v>1.408414909230937</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>33511</v>
+        <v>34948</v>
       </c>
       <c r="B29">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C29">
-        <v>7.65186587692519</v>
+        <v>2.654165305041922</v>
       </c>
       <c r="D29">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E29">
-        <v>6.75990437101035</v>
+        <v>3.193709999460959</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>33603</v>
+        <v>35040</v>
       </c>
       <c r="B30">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C30">
-        <v>5.955905607167122</v>
+        <v>2.234710814035812</v>
       </c>
       <c r="D30">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E30">
-        <v>-0.005898890116151634</v>
+        <v>1.463127579670287</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>33694</v>
+        <v>35131</v>
       </c>
       <c r="B31">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C31">
-        <v>1.407223054900464</v>
+        <v>-0.5166788374649123</v>
       </c>
       <c r="D31">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E31">
-        <v>1.540180738166597</v>
+        <v>-0.9489052377267937</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>33785</v>
+        <v>35221</v>
       </c>
       <c r="B32">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C32">
-        <v>3.770303686471776</v>
+        <v>-0.6785505155195604</v>
       </c>
       <c r="D32">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E32">
-        <v>4.833608027690683</v>
+        <v>-1.188578696562748</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>33877</v>
+        <v>35313</v>
       </c>
       <c r="B33">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C33">
-        <v>2.363611241596497</v>
+        <v>1.371336976130499</v>
       </c>
       <c r="D33">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E33">
-        <v>1.653235005316933</v>
+        <v>3.430500530262126</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>33969</v>
+        <v>35403</v>
       </c>
       <c r="B34">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C34">
-        <v>1.850401149566561</v>
+        <v>1.595002781738275</v>
       </c>
       <c r="D34">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E34">
-        <v>-0.4495646332120296</v>
+        <v>4.207635715208324</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>34059</v>
+        <v>35493</v>
       </c>
       <c r="B35">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C35">
-        <v>-0.5442533711950692</v>
+        <v>1.638340136177918</v>
       </c>
       <c r="D35">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E35">
-        <v>-0.5665334908269704</v>
+        <v>1.199618656731283</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>34150</v>
+        <v>35586</v>
       </c>
       <c r="B36">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C36">
-        <v>-3.631379003451563</v>
+        <v>1.695006817304967</v>
       </c>
       <c r="D36">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E36">
-        <v>-4.837330717035071</v>
+        <v>1.278023271204054</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>34242</v>
+        <v>35683</v>
       </c>
       <c r="B37">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C37">
-        <v>-1.790701590087718</v>
+        <v>2.404582467128114</v>
       </c>
       <c r="D37">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E37">
-        <v>-0.625345630378904</v>
+        <v>3.152352039472572</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>34334</v>
+        <v>35768</v>
       </c>
       <c r="B38">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C38">
-        <v>-0.9857661435315745</v>
+        <v>2.499560583078497</v>
       </c>
       <c r="D38">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E38">
-        <v>2.795029892345036</v>
+        <v>3.492506333467071</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>34424</v>
+        <v>35881</v>
       </c>
       <c r="B39">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C39">
-        <v>0.764674004485455</v>
+        <v>1.912940098790661</v>
       </c>
       <c r="D39">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E39">
-        <v>0.4426857243362781</v>
+        <v>1.694922516109876</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>34515</v>
+        <v>35950</v>
       </c>
       <c r="B40">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C40">
-        <v>2.525367061038386</v>
+        <v>2.847469613938181</v>
       </c>
       <c r="D40">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E40">
-        <v>2.890876292836841</v>
+        <v>2.968999233486636</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>34607</v>
+        <v>36047</v>
       </c>
       <c r="B41">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C41">
-        <v>3.429002849571927</v>
+        <v>2.81077400804024</v>
       </c>
       <c r="D41">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E41">
-        <v>4.947432979682831</v>
+        <v>2.168644690046584</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>34699</v>
+        <v>36132</v>
       </c>
       <c r="B42">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C42">
-        <v>3.052254893522388</v>
+        <v>2.812603855740181</v>
       </c>
       <c r="D42">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E42">
-        <v>3.383052772393214</v>
+        <v>2.334197296693863</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>34789</v>
+        <v>36223</v>
       </c>
       <c r="B43">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C43">
-        <v>2.656402535191971</v>
+        <v>0.4154932394832223</v>
       </c>
       <c r="D43">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E43">
-        <v>2.501682193709187</v>
+        <v>0.1667676276564611</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>34880</v>
+        <v>36319</v>
       </c>
       <c r="B44">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C44">
-        <v>1.86590761958525</v>
+        <v>0.8798915307165922</v>
       </c>
       <c r="D44">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E44">
-        <v>1.408414909230937</v>
+        <v>0.9767994936995539</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>34948</v>
+        <v>36412</v>
       </c>
       <c r="B45">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C45">
-        <v>2.654165305041922</v>
+        <v>0.6432491781942717</v>
       </c>
       <c r="D45">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E45">
-        <v>3.193709999460959</v>
+        <v>0.7060477938485743</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>35040</v>
+        <v>36501</v>
       </c>
       <c r="B46">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C46">
-        <v>2.234710814035812</v>
+        <v>1.188004848513446</v>
       </c>
       <c r="D46">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E46">
-        <v>1.463127579670287</v>
+        <v>2.032004888754391</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>35131</v>
+        <v>36587</v>
       </c>
       <c r="B47">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C47">
-        <v>-0.5166788374649123</v>
+        <v>2.89324554678807</v>
       </c>
       <c r="D47">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E47">
-        <v>-0.9489052377267937</v>
+        <v>3.030131733635244</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>35221</v>
+        <v>36676</v>
       </c>
       <c r="B48">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C48">
-        <v>-0.6785505155195604</v>
+        <v>2.656958100102846</v>
       </c>
       <c r="D48">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E48">
-        <v>-1.188578696562748</v>
+        <v>2.731710176905877</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>35313</v>
+        <v>36767</v>
       </c>
       <c r="B49">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C49">
-        <v>1.371336976130499</v>
+        <v>3.398546648180578</v>
       </c>
       <c r="D49">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E49">
-        <v>3.430500530262126</v>
+        <v>4.167119510522754</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>35403</v>
+        <v>36858</v>
       </c>
       <c r="B50">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C50">
-        <v>1.595002781738275</v>
+        <v>3.277038745546235</v>
       </c>
       <c r="D50">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E50">
-        <v>4.207635715208324</v>
+        <v>3.09884301635126</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>35493</v>
+        <v>36951</v>
       </c>
       <c r="B51">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C51">
-        <v>1.638340136177918</v>
+        <v>1.181852137749018</v>
       </c>
       <c r="D51">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E51">
-        <v>1.199618656731283</v>
+        <v>0.9293919043387833</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>35586</v>
+        <v>37034</v>
       </c>
       <c r="B52">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C52">
-        <v>1.695006817304967</v>
+        <v>1.426159487177681</v>
       </c>
       <c r="D52">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E52">
-        <v>1.278023271204054</v>
+        <v>1.268063782307416</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>35683</v>
+        <v>37126</v>
       </c>
       <c r="B53">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C53">
-        <v>2.404582467128114</v>
+        <v>0.9563223375169905</v>
       </c>
       <c r="D53">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E53">
-        <v>3.152352039472572</v>
+        <v>0.4375407458243163</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>35768</v>
+        <v>37222</v>
       </c>
       <c r="B54">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C54">
-        <v>2.499560583078497</v>
+        <v>0.7513248531724415</v>
       </c>
       <c r="D54">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E54">
-        <v>3.492506333467071</v>
+        <v>-0.408724114026926</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>35881</v>
+        <v>37314</v>
       </c>
       <c r="B55">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C55">
-        <v>1.912940098790661</v>
+        <v>-0.8132369628729097</v>
       </c>
       <c r="D55">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E55">
-        <v>1.694922516109876</v>
+        <v>-0.8985592391854702</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>35950</v>
+        <v>37399</v>
       </c>
       <c r="B56">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C56">
-        <v>2.847469613938181</v>
+        <v>-0.09079305020236461</v>
       </c>
       <c r="D56">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E56">
-        <v>2.968999233486636</v>
+        <v>0.1072756205915404</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>36047</v>
+        <v>37490</v>
       </c>
       <c r="B57">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C57">
-        <v>2.81077400804024</v>
+        <v>0.366162710493767</v>
       </c>
       <c r="D57">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E57">
-        <v>2.168644690046584</v>
+        <v>1.108286614369702</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>36132</v>
+        <v>37581</v>
       </c>
       <c r="B58">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C58">
-        <v>2.812603855740181</v>
+        <v>0.2537741062064169</v>
       </c>
       <c r="D58">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E58">
-        <v>2.334197296693863</v>
+        <v>0.9118162660485263</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>36223</v>
+        <v>37678</v>
       </c>
       <c r="B59">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C59">
-        <v>0.4154932394832223</v>
+        <v>0.4092409882227255</v>
       </c>
       <c r="D59">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E59">
-        <v>0.1667676276564611</v>
+        <v>0.3201964805208179</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>36319</v>
+        <v>37756</v>
       </c>
       <c r="B60">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C60">
-        <v>0.8798915307165922</v>
+        <v>-0.2852992240488517</v>
       </c>
       <c r="D60">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E60">
-        <v>0.9767994936995539</v>
+        <v>-0.6434466511772374</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>36412</v>
+        <v>37847</v>
       </c>
       <c r="B61">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C61">
-        <v>0.6432491781942717</v>
+        <v>-0.2969170546321287</v>
       </c>
       <c r="D61">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E61">
-        <v>0.7060477938485743</v>
+        <v>-0.480369672753056</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>36501</v>
+        <v>37938</v>
       </c>
       <c r="B62">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C62">
-        <v>1.188004848513446</v>
+        <v>-0.1535080579381121</v>
       </c>
       <c r="D62">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E62">
-        <v>2.032004888754391</v>
+        <v>0.3435726964089891</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>36587</v>
+        <v>38029</v>
       </c>
       <c r="B63">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C63">
-        <v>2.89324554678807</v>
+        <v>0.744905948692054</v>
       </c>
       <c r="D63">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E63">
-        <v>3.030131733635244</v>
+        <v>0.8419429008595269</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>36676</v>
+        <v>38120</v>
       </c>
       <c r="B64">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C64">
-        <v>2.656958100102846</v>
+        <v>1.25935754237172</v>
       </c>
       <c r="D64">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E64">
-        <v>2.731710176905877</v>
+        <v>1.52755625946297</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>36767</v>
+        <v>38211</v>
       </c>
       <c r="B65">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C65">
-        <v>3.398546648180578</v>
+        <v>1.45027325352638</v>
       </c>
       <c r="D65">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E65">
-        <v>4.167119510522754</v>
+        <v>1.854561123823983</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>36858</v>
+        <v>38302</v>
       </c>
       <c r="B66">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C66">
-        <v>3.277038745546235</v>
+        <v>1.171834509066594</v>
       </c>
       <c r="D66">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E66">
-        <v>3.09884301635126</v>
+        <v>0.8394840956263971</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>36951</v>
+        <v>38398</v>
       </c>
       <c r="B67">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C67">
-        <v>1.181852137749018</v>
+        <v>-0.4140812789778514</v>
       </c>
       <c r="D67">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E67">
-        <v>0.9293919043387833</v>
+        <v>-0.592144173234066</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>37034</v>
+        <v>38484</v>
       </c>
       <c r="B68">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C68">
-        <v>1.426159487177681</v>
+        <v>1.849854064762901</v>
       </c>
       <c r="D68">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E68">
-        <v>1.268063782307416</v>
+        <v>2.608452643869552</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>37126</v>
+        <v>38575</v>
       </c>
       <c r="B69">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C69">
-        <v>0.9563223375169905</v>
+        <v>0.937266813805393</v>
       </c>
       <c r="D69">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E69">
-        <v>0.4375407458243163</v>
+        <v>1.008922422460712</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>37222</v>
+        <v>38671</v>
       </c>
       <c r="B70">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C70">
-        <v>0.7513248531724415</v>
+        <v>1.120380359544382</v>
       </c>
       <c r="D70">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E70">
-        <v>-0.408724114026926</v>
+        <v>1.940699468213469</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>37314</v>
+        <v>38762</v>
       </c>
       <c r="B71">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="C71">
-        <v>-0.8132369628729097</v>
+        <v>1.003138151489602</v>
       </c>
       <c r="D71">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E71">
-        <v>-0.8985592391854702</v>
+        <v>0.8498851441346433</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>37399</v>
+        <v>38848</v>
       </c>
       <c r="B72">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="C72">
-        <v>-0.09079305020236461</v>
+        <v>1.134182589932542</v>
       </c>
       <c r="D72">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E72">
-        <v>0.1072756205915404</v>
+        <v>0.9849328351749564</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>37490</v>
+        <v>38943</v>
       </c>
       <c r="B73">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="C73">
-        <v>0.366162710493767</v>
+        <v>2.509199479510515</v>
       </c>
       <c r="D73">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E73">
-        <v>1.108286614369702</v>
+        <v>3.352121358864624</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>37581</v>
+        <v>39035</v>
       </c>
       <c r="B74">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="C74">
-        <v>0.2537741062064169</v>
+        <v>2.691354324129258</v>
       </c>
       <c r="D74">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E74">
-        <v>0.9118162660485263</v>
+        <v>3.187301687590338</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>37678</v>
+        <v>39126</v>
       </c>
       <c r="B75">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C75">
-        <v>0.4092409882227255</v>
+        <v>3.483392743453817</v>
       </c>
       <c r="D75">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E75">
-        <v>0.3201964805208179</v>
+        <v>3.417993895042182</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>37756</v>
+        <v>39217</v>
       </c>
       <c r="B76">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C76">
-        <v>-0.2852992240488517</v>
+        <v>3.046387543902274</v>
       </c>
       <c r="D76">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E76">
-        <v>-0.6434466511772374</v>
+        <v>2.70919674139074</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>37847</v>
+        <v>39308</v>
       </c>
       <c r="B77">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C77">
-        <v>-0.2969170546321287</v>
+        <v>2.470370400462363</v>
       </c>
       <c r="D77">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E77">
-        <v>-0.480369672753056</v>
+        <v>1.409701198922741</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>37938</v>
+        <v>39400</v>
       </c>
       <c r="B78">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C78">
-        <v>-0.1535080579381121</v>
+        <v>2.652245539637632</v>
       </c>
       <c r="D78">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E78">
-        <v>0.3435726964089891</v>
+        <v>2.158031012958861</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>38029</v>
+        <v>39492</v>
       </c>
       <c r="B79">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C79">
-        <v>0.744905948692054</v>
+        <v>1.628419290219707</v>
       </c>
       <c r="D79">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E79">
-        <v>0.8419429008595269</v>
+        <v>1.602387892266655</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>38120</v>
+        <v>39583</v>
       </c>
       <c r="B80">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C80">
-        <v>1.25935754237172</v>
+        <v>3.696216801135943</v>
       </c>
       <c r="D80">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E80">
-        <v>1.52755625946297</v>
+        <v>4.482779680928051</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>38211</v>
+        <v>39674</v>
       </c>
       <c r="B81">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C81">
-        <v>1.45027325352638</v>
+        <v>1.720874891586854</v>
       </c>
       <c r="D81">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E81">
-        <v>1.854561123823983</v>
+        <v>0.3117723978018017</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>38302</v>
+        <v>39765</v>
       </c>
       <c r="B82">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C82">
-        <v>1.171834509066594</v>
+        <v>1.327195601304898</v>
       </c>
       <c r="D82">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E82">
-        <v>0.8394840956263971</v>
+        <v>-1.941693908020603</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>38398</v>
+        <v>39857</v>
       </c>
       <c r="B83">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C83">
-        <v>-0.4140812789778514</v>
+        <v>-5.628805975317519</v>
       </c>
       <c r="D83">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E83">
-        <v>-0.592144173234066</v>
+        <v>-6.207375383736391</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>38484</v>
+        <v>39948</v>
       </c>
       <c r="B84">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C84">
-        <v>1.849854064762901</v>
+        <v>-10.1884206506174</v>
       </c>
       <c r="D84">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E84">
-        <v>2.608452643869552</v>
+        <v>-12.44886541640216</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>38575</v>
+        <v>40038</v>
       </c>
       <c r="B85">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C85">
-        <v>0.937266813805393</v>
+        <v>-6.289538653430182</v>
       </c>
       <c r="D85">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E85">
-        <v>1.008922422460712</v>
+        <v>-3.692851844557188</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>38671</v>
+        <v>40130</v>
       </c>
       <c r="B86">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C86">
-        <v>1.120380359544382</v>
+        <v>-4.803590807538871</v>
       </c>
       <c r="D86">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E86">
-        <v>1.940699468213469</v>
+        <v>2.536922056245872</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>38762</v>
+        <v>40221</v>
       </c>
       <c r="B87">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C87">
-        <v>1.003138151489602</v>
+        <v>1.193735781071092</v>
       </c>
       <c r="D87">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E87">
-        <v>0.8498851441346433</v>
+        <v>0.9937444821978225</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>38848</v>
+        <v>40310</v>
       </c>
       <c r="B88">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C88">
-        <v>1.134182589932542</v>
+        <v>1.026818295716803</v>
       </c>
       <c r="D88">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E88">
-        <v>0.9849328351749564</v>
+        <v>0.6731564222281827</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>38943</v>
+        <v>40403</v>
       </c>
       <c r="B89">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C89">
-        <v>2.509199479510515</v>
+        <v>3.968630146968088</v>
       </c>
       <c r="D89">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E89">
-        <v>3.352121358864624</v>
+        <v>6.649078928583951</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>39035</v>
+        <v>40494</v>
       </c>
       <c r="B90">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C90">
-        <v>2.691354324129258</v>
+        <v>3.776429555840499</v>
       </c>
       <c r="D90">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E90">
-        <v>3.187301687590338</v>
+        <v>5.124900822223233</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>39126</v>
+        <v>40589</v>
       </c>
       <c r="B91">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C91">
-        <v>3.483392743453817</v>
+        <v>2.422077319867544</v>
       </c>
       <c r="D91">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E91">
-        <v>3.417993895042182</v>
+        <v>1.914299090637628</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>39217</v>
+        <v>40676</v>
       </c>
       <c r="B92">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C92">
-        <v>3.046387543902274</v>
+        <v>4.330112454756896</v>
       </c>
       <c r="D92">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E92">
-        <v>2.70919674139074</v>
+        <v>4.541390901327569</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>39308</v>
+        <v>40771</v>
       </c>
       <c r="B93">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C93">
-        <v>2.470370400462363</v>
+        <v>3.175645069966238</v>
       </c>
       <c r="D93">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E93">
-        <v>1.409701198922741</v>
+        <v>2.091045465444052</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>39400</v>
+        <v>40862</v>
       </c>
       <c r="B94">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C94">
-        <v>2.652245539637632</v>
+        <v>3.167941427237042</v>
       </c>
       <c r="D94">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E94">
-        <v>2.158031012958861</v>
+        <v>1.70423418303296</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>39492</v>
+        <v>40954</v>
       </c>
       <c r="B95">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C95">
-        <v>1.628419290219707</v>
+        <v>0.4877127769916223</v>
       </c>
       <c r="D95">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E95">
-        <v>1.602387892266655</v>
+        <v>0.2773818169901521</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>39583</v>
+        <v>41044</v>
       </c>
       <c r="B96">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C96">
-        <v>3.696216801135943</v>
+        <v>1.087923448804795</v>
       </c>
       <c r="D96">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E96">
-        <v>4.482779680928051</v>
+        <v>1.111295745068719</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>39674</v>
+        <v>41135</v>
       </c>
       <c r="B97">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C97">
-        <v>1.720874891586854</v>
+        <v>1.167633177812455</v>
       </c>
       <c r="D97">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E97">
-        <v>0.3117723978018017</v>
+        <v>1.386692168220338</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>39765</v>
+        <v>41228</v>
       </c>
       <c r="B98">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C98">
-        <v>1.327195601304898</v>
+        <v>1.072335020576287</v>
       </c>
       <c r="D98">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E98">
-        <v>-1.941693908020603</v>
+        <v>0.990934028412549</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>39857</v>
+        <v>41319</v>
       </c>
       <c r="B99">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C99">
-        <v>-5.628805975317519</v>
+        <v>-0.9509348096018111</v>
       </c>
       <c r="D99">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E99">
-        <v>-6.207375383736391</v>
+        <v>-1.268789711283325</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>39948</v>
+        <v>41409</v>
       </c>
       <c r="B100">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C100">
-        <v>-10.1884206506174</v>
+        <v>-0.6600930445666675</v>
       </c>
       <c r="D100">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E100">
-        <v>-12.44886541640216</v>
+        <v>-0.7631906159002333</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>40038</v>
+        <v>41500</v>
       </c>
       <c r="B101">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C101">
-        <v>-6.289538653430182</v>
+        <v>0.591869411397794</v>
       </c>
       <c r="D101">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E101">
-        <v>-3.692851844557188</v>
+        <v>1.961172615540074</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>40130</v>
+        <v>41592</v>
       </c>
       <c r="B102">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C102">
-        <v>-4.803590807538871</v>
+        <v>0.5676944965793185</v>
       </c>
       <c r="D102">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E102">
-        <v>2.536922056245872</v>
+        <v>1.859803271823757</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>40221</v>
+        <v>41684</v>
       </c>
       <c r="B103">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C103">
-        <v>1.193735781071092</v>
+        <v>1.538268037357837</v>
       </c>
       <c r="D103">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E103">
-        <v>0.9937444821978225</v>
+        <v>1.461552604622374</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>40310</v>
+        <v>41774</v>
       </c>
       <c r="B104">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C104">
-        <v>1.026818295716803</v>
+        <v>2.439056157886133</v>
       </c>
       <c r="D104">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E104">
-        <v>0.6731564222281827</v>
+        <v>2.712995226103132</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>40403</v>
+        <v>41865</v>
       </c>
       <c r="B105">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C105">
-        <v>3.968630146968088</v>
+        <v>1.372208106350903</v>
       </c>
       <c r="D105">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E105">
-        <v>6.649078928583951</v>
+        <v>0.4337400582428597</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>40494</v>
+        <v>41957</v>
       </c>
       <c r="B106">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C106">
-        <v>3.776429555840499</v>
+        <v>1.417171832295883</v>
       </c>
       <c r="D106">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E106">
-        <v>5.124900822223233</v>
+        <v>0.05331272828721367</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>40589</v>
+        <v>42048</v>
       </c>
       <c r="B107">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C107">
-        <v>2.422077319867544</v>
+        <v>1.692797927083323</v>
       </c>
       <c r="D107">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E107">
-        <v>1.914299090637628</v>
+        <v>1.973705200986098</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>40676</v>
+        <v>42137</v>
       </c>
       <c r="B108">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C108">
-        <v>4.330112454756896</v>
+        <v>1.478929861176237</v>
       </c>
       <c r="D108">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E108">
-        <v>4.541390901327569</v>
+        <v>1.676382600382564</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>40771</v>
+        <v>42230</v>
       </c>
       <c r="B109">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C109">
-        <v>3.175645069966238</v>
+        <v>1.523904146864052</v>
       </c>
       <c r="D109">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E109">
-        <v>2.091045465444052</v>
+        <v>1.644727669734758</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>40862</v>
+        <v>42321</v>
       </c>
       <c r="B110">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C110">
-        <v>3.167941427237042</v>
+        <v>1.475252114130599</v>
       </c>
       <c r="D110">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E110">
-        <v>1.70423418303296</v>
+        <v>1.442973638880907</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>40954</v>
+        <v>42412</v>
       </c>
       <c r="B111">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C111">
-        <v>0.4877127769916223</v>
+        <v>1.124679214395008</v>
       </c>
       <c r="D111">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E111">
-        <v>0.2773818169901521</v>
+        <v>1.09252385922316</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>41044</v>
+        <v>42503</v>
       </c>
       <c r="B112">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C112">
-        <v>1.087923448804795</v>
+        <v>1.880356773996161</v>
       </c>
       <c r="D112">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E112">
-        <v>1.111295745068719</v>
+        <v>2.143034813277178</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>41135</v>
+        <v>42594</v>
       </c>
       <c r="B113">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C113">
-        <v>1.167633177812455</v>
+        <v>1.953749061970145</v>
       </c>
       <c r="D113">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E113">
-        <v>1.386692168220338</v>
+        <v>2.047551517209345</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>41228</v>
+        <v>42689</v>
       </c>
       <c r="B114">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C114">
-        <v>1.072335020576287</v>
+        <v>1.71887541289224</v>
       </c>
       <c r="D114">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E114">
-        <v>0.990934028412549</v>
+        <v>1.076548192761484</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>41319</v>
+        <v>42780</v>
       </c>
       <c r="B115">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C115">
-        <v>-0.9509348096018111</v>
+        <v>1.301528611721214</v>
       </c>
       <c r="D115">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E115">
-        <v>-1.268789711283325</v>
+        <v>1.329301336203526</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>41409</v>
+        <v>42867</v>
       </c>
       <c r="B116">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C116">
-        <v>-0.6600930445666675</v>
+        <v>1.929223532179036</v>
       </c>
       <c r="D116">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E116">
-        <v>-0.7631906159002333</v>
+        <v>2.187377386010447</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>41500</v>
+        <v>42962</v>
       </c>
       <c r="B117">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C117">
-        <v>0.591869411397794</v>
+        <v>2.280989617734819</v>
       </c>
       <c r="D117">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E117">
-        <v>1.961172615540074</v>
+        <v>2.613842204809647</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>41592</v>
+        <v>43053</v>
       </c>
       <c r="B118">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C118">
-        <v>0.5676944965793185</v>
+        <v>2.581636142651922</v>
       </c>
       <c r="D118">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E118">
-        <v>1.859803271823757</v>
+        <v>3.064375402422015</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>41684</v>
+        <v>43145</v>
       </c>
       <c r="B119">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C119">
-        <v>1.538268037357837</v>
+        <v>2.646862898935809</v>
       </c>
       <c r="D119">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E119">
-        <v>1.461552604622374</v>
+        <v>2.623623887642434</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>41774</v>
+        <v>43235</v>
       </c>
       <c r="B120">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C120">
-        <v>2.439056157886133</v>
+        <v>1.919825538525988</v>
       </c>
       <c r="D120">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E120">
-        <v>2.712995226103132</v>
+        <v>1.616739045460869</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>41865</v>
+        <v>43326</v>
       </c>
       <c r="B121">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C121">
-        <v>1.372208106350903</v>
+        <v>1.857727179172031</v>
       </c>
       <c r="D121">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E121">
-        <v>0.4337400582428597</v>
+        <v>1.70589079202994</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>41957</v>
+        <v>43418</v>
       </c>
       <c r="B122">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C122">
-        <v>1.417171832295883</v>
+        <v>1.471137749280693</v>
       </c>
       <c r="D122">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E122">
-        <v>0.05331272828721367</v>
+        <v>0.1137080120319656</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>42048</v>
+        <v>43510</v>
       </c>
       <c r="B123">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C123">
-        <v>1.692797927083323</v>
+        <v>-0.1366722846576462</v>
       </c>
       <c r="D123">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E123">
-        <v>1.973705200986098</v>
+        <v>-0.216966222090853</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>42137</v>
+        <v>43600</v>
       </c>
       <c r="B124">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C124">
-        <v>1.478929861176237</v>
+        <v>0.8478136117613833</v>
       </c>
       <c r="D124">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E124">
-        <v>1.676382600382564</v>
+        <v>1.153059686387214</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>42230</v>
+        <v>43691</v>
       </c>
       <c r="B125">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C125">
-        <v>1.523904146864052</v>
+        <v>0.6160948373339581</v>
       </c>
       <c r="D125">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E125">
-        <v>1.644727669734758</v>
+        <v>0.2985190469646293</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>42321</v>
+        <v>43783</v>
       </c>
       <c r="B126">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C126">
-        <v>1.475252114130599</v>
+        <v>0.508332909595044</v>
       </c>
       <c r="D126">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E126">
-        <v>1.442973638880907</v>
+        <v>-0.1203207525434236</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>42412</v>
+        <v>43875</v>
       </c>
       <c r="B127">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C127">
-        <v>1.124679214395008</v>
+        <v>0.289128389497173</v>
       </c>
       <c r="D127">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E127">
-        <v>1.09252385922316</v>
+        <v>0.335512364592172</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>42503</v>
+        <v>43966</v>
       </c>
       <c r="B128">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C128">
-        <v>1.880356773996161</v>
+        <v>-4.237342230872454</v>
       </c>
       <c r="D128">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E128">
-        <v>2.143034813277178</v>
+        <v>-5.891534789017571</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>42594</v>
+        <v>44068</v>
       </c>
       <c r="B129">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C129">
-        <v>1.953749061970145</v>
+        <v>-13.33719465903573</v>
       </c>
       <c r="D129">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E129">
-        <v>2.047551517209345</v>
+        <v>-25.87306245687905</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>42689</v>
+        <v>44159</v>
       </c>
       <c r="B130">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C130">
-        <v>1.71887541289224</v>
+        <v>-5.494775307949129</v>
       </c>
       <c r="D130">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E130">
-        <v>1.076548192761484</v>
+        <v>8.235743591092737</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>42780</v>
+        <v>44251</v>
       </c>
       <c r="B131">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C131">
-        <v>1.301528611721214</v>
+        <v>10.79099055951989</v>
       </c>
       <c r="D131">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E131">
-        <v>1.329301336203526</v>
+        <v>12.7631036368576</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>42867</v>
+        <v>44341</v>
       </c>
       <c r="B132">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C132">
-        <v>1.929223532179036</v>
+        <v>-1.195442653096257</v>
       </c>
       <c r="D132">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E132">
-        <v>2.187377386010447</v>
+        <v>-4.00599668311078</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>42962</v>
+        <v>44432</v>
       </c>
       <c r="B133">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C133">
-        <v>2.280989617734819</v>
+        <v>1.458368211431327</v>
       </c>
       <c r="D133">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E133">
-        <v>2.613842204809647</v>
+        <v>1.809721427256239</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>43053</v>
+        <v>44525</v>
       </c>
       <c r="B134">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C134">
-        <v>2.581636142651922</v>
+        <v>3.149343082976164</v>
       </c>
       <c r="D134">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E134">
-        <v>3.064375402422015</v>
+        <v>7.432336632701175</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>43145</v>
+        <v>44617</v>
       </c>
       <c r="B135">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C135">
-        <v>2.646862898935809</v>
+        <v>2.168692816501894</v>
       </c>
       <c r="D135">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E135">
-        <v>2.623623887642434</v>
+        <v>1.290012106441241</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>43235</v>
+        <v>44706</v>
       </c>
       <c r="B136">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C136">
-        <v>1.919825538525988</v>
+        <v>1.344786076589832</v>
       </c>
       <c r="D136">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E136">
-        <v>1.616739045460869</v>
+        <v>0.1554161503046547</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>43326</v>
+        <v>44798</v>
       </c>
       <c r="B137">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C137">
-        <v>1.857727179172031</v>
+        <v>2.072977160642453</v>
       </c>
       <c r="D137">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E137">
-        <v>1.70589079202994</v>
+        <v>1.422897249742427</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>43418</v>
+        <v>44890</v>
       </c>
       <c r="B138">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C138">
-        <v>1.471137749280693</v>
+        <v>1.995866057153428</v>
       </c>
       <c r="D138">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E138">
-        <v>0.1137080120319656</v>
+        <v>1.189587957345273</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>43510</v>
+        <v>44981</v>
       </c>
       <c r="B139">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C139">
-        <v>-0.1366722846576462</v>
+        <v>-0.2857813535580123</v>
       </c>
       <c r="D139">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E139">
-        <v>-0.216966222090853</v>
+        <v>-0.534390352424885</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>43600</v>
+        <v>45071</v>
       </c>
       <c r="B140">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C140">
-        <v>0.8478136117613833</v>
+        <v>-1.149816025990236</v>
       </c>
       <c r="D140">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E140">
-        <v>1.153059686387214</v>
+        <v>-1.603768089243041</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>43691</v>
+        <v>45163</v>
       </c>
       <c r="B141">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C141">
-        <v>0.6160948373339581</v>
+        <v>-0.256849276026061</v>
       </c>
       <c r="D141">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E141">
-        <v>0.2985190469646293</v>
+        <v>-0.07048608765618525</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>43783</v>
+        <v>45254</v>
       </c>
       <c r="B142">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C142">
-        <v>0.508332909595044</v>
+        <v>-0.1168430792840458</v>
       </c>
       <c r="D142">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E142">
-        <v>-0.1203207525434236</v>
+        <v>-0.1427298585871872</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>43875</v>
+        <v>45345</v>
       </c>
       <c r="B143">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C143">
-        <v>0.289128389497173</v>
+        <v>-0.6642037199584894</v>
       </c>
       <c r="D143">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E143">
-        <v>0.335512364592172</v>
+        <v>-0.777840993597545</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>43966</v>
+        <v>45436</v>
       </c>
       <c r="B144">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C144">
-        <v>-4.237342230872454</v>
+        <v>-0.213677328227746</v>
       </c>
       <c r="D144">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E144">
-        <v>-5.891534789017571</v>
+        <v>-0.1073236571678571</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>44068</v>
+        <v>45534</v>
       </c>
       <c r="B145">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C145">
-        <v>-13.33719465903573</v>
+        <v>-0.0004588987745912654</v>
       </c>
       <c r="D145">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E145">
-        <v>-25.87306245687905</v>
+        <v>0.1182553978291701</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>44159</v>
+        <v>45618</v>
       </c>
       <c r="B146">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C146">
-        <v>-5.494775307949129</v>
+        <v>-0.1775688094211469</v>
       </c>
       <c r="D146">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E146">
-        <v>8.235743591092737</v>
+        <v>-0.1265568156813002</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>44251</v>
+        <v>45713</v>
       </c>
       <c r="B147">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="C147">
-        <v>10.79099055951989</v>
+        <v>-0.3815867690989849</v>
       </c>
       <c r="D147">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="E147">
-        <v>12.7631036368576</v>
+        <v>-0.396686851644934</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>44341</v>
+        <v>45800</v>
       </c>
       <c r="B148">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="C148">
-        <v>-1.195442653096257</v>
+        <v>0.4937964215598223</v>
       </c>
       <c r="D148">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="E148">
-        <v>-4.00599668311078</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="2">
-        <v>44432</v>
-      </c>
-      <c r="B149">
-        <v>2021</v>
-      </c>
-      <c r="C149">
-        <v>1.458368211431327</v>
-      </c>
-      <c r="D149">
-        <v>2022</v>
-      </c>
-      <c r="E149">
-        <v>1.809721427256239</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="2">
-        <v>44525</v>
-      </c>
-      <c r="B150">
-        <v>2021</v>
-      </c>
-      <c r="C150">
-        <v>3.149343082976164</v>
-      </c>
-      <c r="D150">
-        <v>2022</v>
-      </c>
-      <c r="E150">
-        <v>7.432336632701175</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="2">
-        <v>44617</v>
-      </c>
-      <c r="B151">
-        <v>2022</v>
-      </c>
-      <c r="C151">
-        <v>2.168692816501894</v>
-      </c>
-      <c r="D151">
-        <v>2023</v>
-      </c>
-      <c r="E151">
-        <v>1.290012106441241</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="2">
-        <v>44706</v>
-      </c>
-      <c r="B152">
-        <v>2022</v>
-      </c>
-      <c r="C152">
-        <v>1.344786076589832</v>
-      </c>
-      <c r="D152">
-        <v>2023</v>
-      </c>
-      <c r="E152">
-        <v>0.1554161503046547</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="2">
-        <v>44798</v>
-      </c>
-      <c r="B153">
-        <v>2022</v>
-      </c>
-      <c r="C153">
-        <v>2.072977160642453</v>
-      </c>
-      <c r="D153">
-        <v>2023</v>
-      </c>
-      <c r="E153">
-        <v>1.422897249742427</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="2">
-        <v>44890</v>
-      </c>
-      <c r="B154">
-        <v>2022</v>
-      </c>
-      <c r="C154">
-        <v>1.995866057153428</v>
-      </c>
-      <c r="D154">
-        <v>2023</v>
-      </c>
-      <c r="E154">
-        <v>1.189587957345273</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="2">
-        <v>44981</v>
-      </c>
-      <c r="B155">
-        <v>2023</v>
-      </c>
-      <c r="C155">
-        <v>-0.2857813535580123</v>
-      </c>
-      <c r="D155">
-        <v>2024</v>
-      </c>
-      <c r="E155">
-        <v>-0.534390352424885</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="2">
-        <v>45071</v>
-      </c>
-      <c r="B156">
-        <v>2023</v>
-      </c>
-      <c r="C156">
-        <v>-1.149816025990236</v>
-      </c>
-      <c r="D156">
-        <v>2024</v>
-      </c>
-      <c r="E156">
-        <v>-1.603768089243041</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="2">
-        <v>45163</v>
-      </c>
-      <c r="B157">
-        <v>2023</v>
-      </c>
-      <c r="C157">
-        <v>-0.256849276026061</v>
-      </c>
-      <c r="D157">
-        <v>2024</v>
-      </c>
-      <c r="E157">
-        <v>-0.07048608765618525</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="2">
-        <v>45254</v>
-      </c>
-      <c r="B158">
-        <v>2023</v>
-      </c>
-      <c r="C158">
-        <v>-0.1168430792840458</v>
-      </c>
-      <c r="D158">
-        <v>2024</v>
-      </c>
-      <c r="E158">
-        <v>-0.1427298585871872</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="2">
-        <v>45345</v>
-      </c>
-      <c r="B159">
-        <v>2024</v>
-      </c>
-      <c r="C159">
-        <v>-0.6642037199584894</v>
-      </c>
-      <c r="D159">
-        <v>2025</v>
-      </c>
-      <c r="E159">
-        <v>-0.777840993597545</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="2">
-        <v>45436</v>
-      </c>
-      <c r="B160">
-        <v>2024</v>
-      </c>
-      <c r="C160">
-        <v>-0.213677328227746</v>
-      </c>
-      <c r="D160">
-        <v>2025</v>
-      </c>
-      <c r="E160">
-        <v>-0.1073236571678571</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="2">
-        <v>45534</v>
-      </c>
-      <c r="B161">
-        <v>2024</v>
-      </c>
-      <c r="C161">
-        <v>-0.0004588987745912654</v>
-      </c>
-      <c r="D161">
-        <v>2025</v>
-      </c>
-      <c r="E161">
-        <v>0.1182553978291701</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="2">
-        <v>45618</v>
-      </c>
-      <c r="B162">
-        <v>2024</v>
-      </c>
-      <c r="C162">
-        <v>-0.1775688094211469</v>
-      </c>
-      <c r="D162">
-        <v>2025</v>
-      </c>
-      <c r="E162">
-        <v>-0.1265568156813002</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="2">
-        <v>45713</v>
-      </c>
-      <c r="B163">
-        <v>2025</v>
-      </c>
-      <c r="C163">
-        <v>-0.3815867690989849</v>
-      </c>
-      <c r="D163">
-        <v>2026</v>
-      </c>
-      <c r="E163">
-        <v>-0.396686851644934</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="2">
-        <v>45800</v>
-      </c>
-      <c r="B164">
-        <v>2025</v>
-      </c>
-      <c r="C164">
-        <v>0.4937964215598223</v>
-      </c>
-      <c r="D164">
-        <v>2026</v>
-      </c>
-      <c r="E164">
         <v>0.8228551885782087</v>
       </c>
     </row>
